--- a/患者库.xlsx
+++ b/患者库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11480"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$C$952</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$C$955</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$C$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="877">
   <si>
     <t>会员码</t>
   </si>
@@ -2458,6 +2458,12 @@
   </si>
   <si>
     <t>蔡生柱</t>
+  </si>
+  <si>
+    <t>柳芬</t>
+  </si>
+  <si>
+    <t>徐琴</t>
   </si>
   <si>
     <t>家旅名字</t>
@@ -3523,7 +3529,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3941,12 +3947,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4271,18 +4271,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E955"/>
+  <dimension ref="A1:E957"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A935" workbookViewId="0">
-      <selection activeCell="H949" sqref="H949"/>
+      <selection activeCell="E955" sqref="E955"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" spans="2:3">
+    <row r="1" ht="16.5" spans="2:3">
       <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="7" ht="17" spans="1:3">
+    <row r="7" spans="1:3">
       <c r="A7" s="26" t="s">
         <v>11</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="10" ht="17.6" spans="1:3">
+    <row r="10" ht="15" spans="1:3">
       <c r="A10" s="29" t="s">
         <v>16</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="16" ht="17" spans="1:3">
+    <row r="16" spans="1:3">
       <c r="A16" s="22" t="s">
         <v>26</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="31" ht="17" spans="1:3">
+    <row r="31" spans="1:3">
       <c r="A31" s="38" t="s">
         <v>49</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="34" ht="17" spans="1:3">
+    <row r="34" spans="1:3">
       <c r="A34" s="39" t="s">
         <v>52</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="49" ht="17.6" spans="1:3">
+    <row r="49" ht="15" spans="1:3">
       <c r="A49" s="43" t="s">
         <v>71</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="51" ht="14" customHeight="1" spans="1:3">
+    <row r="51" customHeight="1" spans="1:3">
       <c r="A51" s="22" t="s">
         <v>73</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="52" ht="17.6" spans="1:3">
+    <row r="52" ht="15" spans="1:3">
       <c r="A52" s="43" t="s">
         <v>74</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="65" ht="17.6" spans="1:3">
+    <row r="65" ht="15" spans="1:3">
       <c r="A65" s="45" t="s">
         <v>89</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="84" ht="17.6" spans="1:3">
+    <row r="84" ht="15" spans="1:3">
       <c r="A84" s="49" t="s">
         <v>111</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="98" ht="17" spans="1:3">
+    <row r="98" spans="1:3">
       <c r="A98" s="51" t="s">
         <v>125</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="99" ht="17" spans="1:3">
+    <row r="99" spans="1:3">
       <c r="A99" s="31" t="s">
         <v>126</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="130" ht="17.6" spans="1:3">
+    <row r="130" ht="15" spans="1:3">
       <c r="A130" s="26" t="s">
         <v>157</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="134" ht="17.6" spans="1:3">
+    <row r="134" ht="15" spans="1:3">
       <c r="A134" s="26" t="s">
         <v>163</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="135" ht="17.6" spans="1:3">
+    <row r="135" ht="15" spans="1:3">
       <c r="A135" s="26" t="s">
         <v>164</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="139" ht="17" spans="1:3">
+    <row r="139" spans="1:3">
       <c r="A139" s="39" t="s">
         <v>168</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="146" ht="17.6" spans="1:3">
+    <row r="146" ht="15" spans="1:3">
       <c r="A146" s="26" t="s">
         <v>175</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="159" ht="17" spans="1:3">
+    <row r="159" spans="1:3">
       <c r="A159" s="60" t="s">
         <v>189</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="160" ht="17" spans="1:3">
+    <row r="160" spans="1:3">
       <c r="A160" s="60" t="s">
         <v>190</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="174" ht="17.6" spans="1:3">
+    <row r="174" ht="15" spans="1:3">
       <c r="A174" s="56" t="s">
         <v>204</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="176" ht="17.6" spans="1:3">
+    <row r="176" ht="15" spans="1:3">
       <c r="A176" s="15" t="s">
         <v>207</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="186" ht="17.6" spans="1:3">
+    <row r="186" ht="15" spans="1:3">
       <c r="A186" s="49" t="s">
         <v>218</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="196" ht="17" spans="1:3">
+    <row r="196" spans="1:3">
       <c r="A196" s="62" t="s">
         <v>229</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="201" ht="18" spans="1:3">
+    <row r="201" ht="15" spans="1:3">
       <c r="A201" s="63" t="s">
         <v>234</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="216" ht="17.6" spans="1:3">
+    <row r="216" ht="15" spans="1:3">
       <c r="A216" s="43" t="s">
         <v>249</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="222" ht="17.6" spans="1:3">
+    <row r="222" ht="15" spans="1:3">
       <c r="A222" s="62" t="s">
         <v>255</v>
       </c>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="C231" s="9"/>
     </row>
-    <row r="232" ht="17" spans="1:3">
+    <row r="232" spans="1:3">
       <c r="A232" s="39" t="s">
         <v>265</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="240" ht="17" spans="1:3">
+    <row r="240" spans="1:3">
       <c r="A240" s="21" t="s">
         <v>273</v>
       </c>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="C242" s="27"/>
     </row>
-    <row r="243" ht="17" spans="1:3">
+    <row r="243" spans="1:3">
       <c r="A243" s="39" t="s">
         <v>277</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="254" ht="17.6" spans="1:3">
+    <row r="254" ht="15" spans="1:3">
       <c r="A254" s="68" t="s">
         <v>288</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="262" ht="17" spans="1:3">
+    <row r="262" spans="1:3">
       <c r="A262" s="39" t="s">
         <v>296</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="319" ht="17" spans="1:3">
+    <row r="319" spans="1:3">
       <c r="A319" s="69" t="s">
         <v>352</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="331" ht="17" spans="1:3">
+    <row r="331" spans="1:3">
       <c r="A331" s="39" t="s">
         <v>365</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="351" ht="17" spans="1:3">
+    <row r="351" spans="1:3">
       <c r="A351" s="85" t="s">
         <v>386</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="356" ht="17" spans="1:3">
+    <row r="356" spans="1:3">
       <c r="A356" s="60" t="s">
         <v>390</v>
       </c>
@@ -8207,7 +8207,7 @@
       <c r="A362" s="88"/>
       <c r="B362" s="89"/>
     </row>
-    <row r="363" ht="17.6" spans="1:2">
+    <row r="363" ht="15" spans="1:2">
       <c r="A363" s="50" t="s">
         <v>394</v>
       </c>
@@ -8265,7 +8265,7 @@
       <c r="A372" s="92"/>
       <c r="B372" s="66"/>
     </row>
-    <row r="373" ht="17.6" spans="1:2">
+    <row r="373" ht="15" spans="1:2">
       <c r="A373" s="49" t="s">
         <v>218</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="374" ht="17.6" spans="1:2">
+    <row r="374" ht="15" spans="1:2">
       <c r="A374" s="49" t="s">
         <v>111</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="410" ht="17" spans="1:2">
+    <row r="410" spans="1:2">
       <c r="A410" s="60" t="s">
         <v>189</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="411" ht="17" spans="1:2">
+    <row r="411" spans="1:2">
       <c r="A411" s="60" t="s">
         <v>190</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="412" ht="17" spans="1:2">
+    <row r="412" spans="1:2">
       <c r="A412" s="95" t="s">
         <v>390</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="413" ht="17" spans="1:2">
+    <row r="413" spans="1:2">
       <c r="A413" s="60" t="s">
         <v>191</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="417" ht="17" spans="1:2">
+    <row r="417" spans="1:2">
       <c r="A417" s="96" t="s">
         <v>191</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="418" ht="17" spans="1:2">
+    <row r="418" spans="1:2">
       <c r="A418" s="97" t="s">
         <v>415</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="432" ht="17" spans="1:2">
+    <row r="432" spans="1:2">
       <c r="A432" s="98" t="s">
         <v>427</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="433" ht="17" spans="1:2">
+    <row r="433" spans="1:2">
       <c r="A433" s="98" t="s">
         <v>428</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="566" ht="17" spans="1:2">
+    <row r="566" spans="1:2">
       <c r="A566" s="93" t="s">
         <v>126</v>
       </c>
@@ -10683,7 +10683,7 @@
       <c r="C679" s="21"/>
       <c r="D679" s="21"/>
     </row>
-    <row r="680" ht="20.4" spans="1:5">
+    <row r="680" ht="17.5" spans="1:5">
       <c r="A680" s="6" t="s">
         <v>527</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="749" ht="17" spans="1:2">
+    <row r="749" spans="1:2">
       <c r="A749" s="109" t="s">
         <v>602</v>
       </c>
@@ -11406,7 +11406,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="770" ht="17" spans="1:2">
+    <row r="770" spans="1:2">
       <c r="A770" s="26" t="s">
         <v>625</v>
       </c>
@@ -11414,7 +11414,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="771" ht="17" spans="1:2">
+    <row r="771" spans="1:2">
       <c r="A771" s="26" t="s">
         <v>626</v>
       </c>
@@ -11449,7 +11449,7 @@
     <row r="775" spans="1:1">
       <c r="A775" s="106"/>
     </row>
-    <row r="776" ht="17" spans="1:2">
+    <row r="776" spans="1:2">
       <c r="A776" s="1" t="s">
         <v>630</v>
       </c>
@@ -11665,7 +11665,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="803" ht="17" spans="1:2">
+    <row r="803" spans="1:2">
       <c r="A803" s="26" t="s">
         <v>660</v>
       </c>
@@ -11897,7 +11897,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="832" ht="17" spans="1:2">
+    <row r="832" spans="1:2">
       <c r="A832" s="26" t="s">
         <v>688</v>
       </c>
@@ -11905,7 +11905,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="833" ht="17" spans="1:2">
+    <row r="833" spans="1:2">
       <c r="A833" s="110" t="s">
         <v>689</v>
       </c>
@@ -11977,7 +11977,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="842" ht="17" spans="1:2">
+    <row r="842" spans="1:2">
       <c r="A842" s="26" t="s">
         <v>697</v>
       </c>
@@ -11999,7 +11999,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="845" ht="17" spans="1:2">
+    <row r="845" spans="1:2">
       <c r="A845" s="109" t="s">
         <v>700</v>
       </c>
@@ -12250,7 +12250,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="877" ht="17" spans="1:2">
+    <row r="877" spans="1:2">
       <c r="A877" s="26" t="s">
         <v>731</v>
       </c>
@@ -12600,18 +12600,18 @@
       </c>
     </row>
     <row r="921" spans="1:2">
-      <c r="A921" s="115" t="s">
+      <c r="A921" s="6" t="s">
         <v>774</v>
       </c>
-      <c r="B921" s="115" t="s">
+      <c r="B921" s="6" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="922" spans="1:2">
-      <c r="A922" s="115" t="s">
+      <c r="A922" s="6" t="s">
         <v>775</v>
       </c>
-      <c r="B922" s="115" t="s">
+      <c r="B922" s="6" t="s">
         <v>520</v>
       </c>
     </row>
@@ -12680,50 +12680,50 @@
       </c>
     </row>
     <row r="931" spans="1:2">
-      <c r="A931" s="116" t="s">
+      <c r="A931" s="27" t="s">
         <v>785</v>
       </c>
-      <c r="B931" s="116" t="s">
+      <c r="B931" s="27" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="932" spans="1:2">
-      <c r="A932" s="116" t="s">
+      <c r="A932" s="27" t="s">
         <v>786</v>
       </c>
-      <c r="B932" s="116" t="s">
+      <c r="B932" s="27" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="933" spans="1:2">
-      <c r="A933" s="116" t="s">
+      <c r="A933" s="27" t="s">
         <v>787</v>
       </c>
-      <c r="B933" s="116" t="s">
+      <c r="B933" s="27" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="934" spans="1:2">
-      <c r="A934" s="116" t="s">
+      <c r="A934" s="27" t="s">
         <v>788</v>
       </c>
-      <c r="B934" s="116" t="s">
+      <c r="B934" s="27" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="935" spans="1:2">
-      <c r="A935" s="116" t="s">
+      <c r="A935" s="27" t="s">
         <v>789</v>
       </c>
-      <c r="B935" s="116" t="s">
+      <c r="B935" s="27" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="936" spans="1:2">
-      <c r="A936" s="116" t="s">
+      <c r="A936" s="27" t="s">
         <v>790</v>
       </c>
-      <c r="B936" s="116" t="s">
+      <c r="B936" s="27" t="s">
         <v>274</v>
       </c>
     </row>
@@ -12731,23 +12731,23 @@
       <c r="A937" s="22" t="s">
         <v>791</v>
       </c>
-      <c r="B937" s="116" t="s">
+      <c r="B937" s="27" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="938" ht="17" spans="1:2">
+    <row r="938" spans="1:2">
       <c r="A938" s="26" t="s">
         <v>792</v>
       </c>
-      <c r="B938" s="116" t="s">
+      <c r="B938" s="27" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="939" spans="1:2">
-      <c r="A939" s="116" t="s">
+      <c r="A939" s="27" t="s">
         <v>706</v>
       </c>
-      <c r="B939" s="116" t="s">
+      <c r="B939" s="27" t="s">
         <v>10</v>
       </c>
     </row>
@@ -12879,9 +12879,19 @@
         <v>605</v>
       </c>
     </row>
+    <row r="956" spans="1:1">
+      <c r="A956" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1">
+      <c r="A957" t="s">
+        <v>809</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C952" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A1:C952">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C955" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A1:C955">
       <sortCondition ref="A1" descending="1"/>
     </sortState>
     <extLst/>
@@ -12961,27 +12971,27 @@
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="26.8846153846154" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.5096153846154" style="4" customWidth="1"/>
-    <col min="3" max="3" width="27.2403846153846" style="4" customWidth="1"/>
+    <col min="1" max="1" width="26.8818181818182" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.5090909090909" style="4" customWidth="1"/>
+    <col min="3" max="3" width="27.2363636363636" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="25" customHeight="1" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B2" s="6">
         <v>5858</v>
@@ -12992,7 +13002,7 @@
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B3" s="6">
         <v>5858</v>
@@ -13003,18 +13013,18 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B4" s="6">
         <v>5858</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B5" s="6">
         <v>5858</v>
@@ -13025,7 +13035,7 @@
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B6" s="6">
         <v>5858</v>
@@ -13036,7 +13046,7 @@
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B7" s="6">
         <v>5858</v>
@@ -13047,18 +13057,18 @@
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:3">
       <c r="A8" s="8" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B8" s="6">
         <v>5858</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:3">
       <c r="A9" s="8" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B9" s="6">
         <v>5858</v>
@@ -13080,7 +13090,7 @@
     </row>
     <row r="11" s="2" customFormat="1" ht="25" customHeight="1" spans="1:3">
       <c r="A11" s="5" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B11" s="6">
         <v>8070</v>
@@ -13091,7 +13101,7 @@
     </row>
     <row r="12" s="2" customFormat="1" ht="25" customHeight="1" spans="1:3">
       <c r="A12" s="5" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B12" s="6">
         <v>8070</v>
@@ -13102,18 +13112,18 @@
     </row>
     <row r="13" s="2" customFormat="1" ht="25" customHeight="1" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B13" s="6">
         <v>8070</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="25" customHeight="1" spans="1:3">
       <c r="A14" s="10" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B14" s="11">
         <v>8070</v>
@@ -13124,7 +13134,7 @@
     </row>
     <row r="15" s="2" customFormat="1" ht="25" customHeight="1" spans="1:3">
       <c r="A15" s="12" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B15" s="13">
         <v>8070</v>
@@ -13135,7 +13145,7 @@
     </row>
     <row r="16" s="2" customFormat="1" ht="25" customHeight="1" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B16" s="6">
         <v>8070</v>
@@ -13146,7 +13156,7 @@
     </row>
     <row r="17" s="2" customFormat="1" ht="25" customHeight="1" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B17" s="6">
         <v>8070</v>
@@ -13157,7 +13167,7 @@
     </row>
     <row r="18" s="2" customFormat="1" ht="25" customHeight="1" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B18" s="6">
         <v>8070</v>
@@ -13168,7 +13178,7 @@
     </row>
     <row r="19" s="2" customFormat="1" ht="25" customHeight="1" spans="1:3">
       <c r="A19" s="14" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B19" s="6">
         <v>8070</v>
@@ -13179,7 +13189,7 @@
     </row>
     <row r="20" s="2" customFormat="1" ht="25" customHeight="1" spans="1:3">
       <c r="A20" s="5" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B20" s="6">
         <v>8070</v>
@@ -13190,7 +13200,7 @@
     </row>
     <row r="21" s="2" customFormat="1" ht="25" customHeight="1" spans="1:3">
       <c r="A21" s="5" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B21" s="6">
         <v>8070</v>
@@ -13212,7 +13222,7 @@
     </row>
     <row r="23" s="2" customFormat="1" ht="25" customHeight="1" spans="1:3">
       <c r="A23" s="6" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B23" s="6">
         <v>8070</v>
@@ -13223,7 +13233,7 @@
     </row>
     <row r="24" ht="25" customHeight="1" spans="1:3">
       <c r="A24" s="5" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B24" s="6">
         <v>8599</v>
@@ -13234,7 +13244,7 @@
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:3">
       <c r="A25" s="5" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B25" s="6">
         <v>8599</v>
@@ -13245,7 +13255,7 @@
     </row>
     <row r="26" ht="25" customHeight="1" spans="1:3">
       <c r="A26" s="5" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B26" s="6">
         <v>8599</v>
@@ -13256,13 +13266,13 @@
     </row>
     <row r="27" ht="25" customHeight="1" spans="1:3">
       <c r="A27" s="5" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B27" s="6">
         <v>8599</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="28" ht="25" customHeight="1" spans="1:3">
@@ -13278,7 +13288,7 @@
     </row>
     <row r="29" ht="25" customHeight="1" spans="1:3">
       <c r="A29" s="6" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B29" s="6">
         <v>8599</v>
@@ -13289,7 +13299,7 @@
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:3">
       <c r="A30" s="8" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B30" s="6">
         <v>8599</v>
@@ -13300,10 +13310,10 @@
     </row>
     <row r="31" ht="25" customHeight="1" spans="1:3">
       <c r="A31" s="6" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>239</v>
@@ -13312,7 +13322,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:3">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>57</v>
@@ -13320,21 +13330,21 @@
     </row>
     <row r="33" ht="25" customHeight="1" spans="1:3">
       <c r="A33" s="6" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="34" ht="25" customHeight="1" spans="1:3">
       <c r="A34" s="6" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>5</v>
@@ -13342,10 +13352,10 @@
     </row>
     <row r="35" ht="25" customHeight="1" spans="1:3">
       <c r="A35" s="6" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>257</v>
@@ -13353,10 +13363,10 @@
     </row>
     <row r="36" ht="25" customHeight="1" spans="1:3">
       <c r="A36" s="8" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>374</v>
@@ -13364,10 +13374,10 @@
     </row>
     <row r="37" ht="25" customHeight="1" spans="1:3">
       <c r="A37" s="8" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>27</v>
@@ -13375,10 +13385,10 @@
     </row>
     <row r="38" ht="25" customHeight="1" spans="1:3">
       <c r="A38" s="8" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>55</v>
@@ -13386,21 +13396,21 @@
     </row>
     <row r="39" s="2" customFormat="1" ht="25" customHeight="1" spans="1:3">
       <c r="A39" s="8" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" ht="25" customHeight="1" spans="1:3">
       <c r="A40" s="8" t="s">
+        <v>854</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>852</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>850</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>14</v>
@@ -13408,52 +13418,52 @@
     </row>
     <row r="41" s="2" customFormat="1" ht="25" customHeight="1" spans="1:3">
       <c r="A41" s="15" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" ht="25" customHeight="1" spans="1:3">
       <c r="A42" s="15" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" ht="25" customHeight="1" spans="1:3">
       <c r="A43" s="15" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" ht="25" customHeight="1" spans="1:3">
       <c r="A44" s="8"/>
       <c r="B44" s="6" t="s">
-        <v>850</v>
-      </c>
-      <c r="C44" s="117" t="s">
-        <v>859</v>
+        <v>852</v>
+      </c>
+      <c r="C44" s="115" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" ht="25" customHeight="1" spans="1:3">
       <c r="A45" s="8" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>43</v>
@@ -13461,21 +13471,21 @@
     </row>
     <row r="46" s="2" customFormat="1" ht="25" customHeight="1" spans="1:3">
       <c r="A46" s="8" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" ht="25" customHeight="1" spans="1:3">
       <c r="A47" s="8" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>274</v>
@@ -13483,10 +13493,10 @@
     </row>
     <row r="48" s="2" customFormat="1" ht="25" customHeight="1" spans="1:3">
       <c r="A48" s="8" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>108</v>
@@ -13497,7 +13507,7 @@
         <v>204</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>205</v>
@@ -13505,13 +13515,13 @@
     </row>
     <row r="50" ht="25" customHeight="1" spans="1:3">
       <c r="A50" s="8" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="51" ht="25" customHeight="1" spans="1:3">
@@ -13519,7 +13529,7 @@
         <v>103</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>45</v>
@@ -13527,7 +13537,7 @@
     </row>
     <row r="52" ht="25" customHeight="1" spans="1:3">
       <c r="A52" s="5" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="B52" s="6">
         <v>8599</v>
@@ -13538,7 +13548,7 @@
     </row>
     <row r="53" ht="25" customHeight="1" spans="1:3">
       <c r="A53" s="5" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="B53" s="6">
         <v>8599</v>
@@ -13577,34 +13587,34 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="43.1057692307692" customWidth="1"/>
+    <col min="1" max="1" width="43.1090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -13626,7 +13636,7 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.22727272727273" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
